--- a/statistics/SPSS/roiObjectLvl_Within-PLI_gamma_B/roiObjectLvl_Within-PLI_gamma_B.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_gamma_B/roiObjectLvl_Within-PLI_gamma_B.xlsx
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.00018787314982965375</v>
+        <v>-0.00017221705401049281</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0012442322719002363</v>
+        <v>0.0011405462492419249</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0048294595155415898</v>
+        <v>-0.004427004555913161</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0089170318983983754</v>
+        <v>0.0081739459068651266</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0026928277898774222</v>
+        <v>0.0024684254740543754</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0047359350091885632</v>
+        <v>0.0043412737584228034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0082796769710666573</v>
+        <v>-0.0075897038901444613</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0086344946410712442</v>
+        <v>0.0079149534209819739</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0070264733034189342</v>
+        <v>-0.0064409338614673517</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0019449149883933037</v>
+        <v>0.0017828387393604983</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0099423168476877044</v>
+        <v>-0.0091137904437137429</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0061306569642627373</v>
+        <v>-0.0056197688839074444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0023182082005611671</v>
+        <v>0.0021250241838476625</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0011247297615391838</v>
+        <v>-0.0010310022814108838</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0081481997957970065</v>
+        <v>-0.0074691831461473068</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0058235511134061557</v>
+        <v>0.0053382551872889761</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0013290344144653576</v>
+        <v>-0.0012182815465932723</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0045878741530915312</v>
+        <v>-0.0042055513070005657</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0095366480459648517</v>
+        <v>-0.0087419273754676674</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0075031163634589337</v>
+        <v>-0.0068778566665040342</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.014575402312648311</v>
+        <v>-0.01336078545326097</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.017753448912869146</v>
+        <v>-0.016273994836796729</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0091639587323729954</v>
+        <v>0.0084002955046752481</v>
       </c>
       <c r="F5" s="0">
-        <v>0.014594075742645929</v>
+        <v>0.01337790276409212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0018473496734366102</v>
+        <v>-0.001693403867316895</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0016496022807383492</v>
+        <v>-0.0015121354240101303</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0043148540607602925</v>
+        <v>0.0039552828890303537</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0046227713746895827</v>
+        <v>0.0042375404267988304</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0070368424405691521</v>
+        <v>0.0064504389038550769</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00068431409011115996</v>
+        <v>-0.00062728791593519295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0067627897147347626</v>
+        <v>0.0061992239051735509</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.012649719927097208</v>
+        <v>-0.011595576599839119</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0014684362510449245</v>
+        <v>-0.0013460665634578706</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0040753587337437891</v>
+        <v>0.0037357455059318645</v>
       </c>
       <c r="E7" s="0">
-        <v>0.015120089537791398</v>
+        <v>0.013860082076308844</v>
       </c>
       <c r="F7" s="0">
-        <v>0.015903787953477383</v>
+        <v>0.014578472290687594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.00020347846434798367</v>
+        <v>-0.0001865219256522721</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0050289216955883009</v>
+        <v>-0.0046098448876226161</v>
       </c>
       <c r="C8" s="0">
-        <v>0.00077373358946858373</v>
+        <v>0.00070925579034622488</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0012149015772204008</v>
+        <v>0.0011136597791187586</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.017164038282050681</v>
+        <v>-0.01573370175854652</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0063759794285156712</v>
+        <v>0.0058446478094726917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.00092344249952949764</v>
+        <v>0.00084648895790195855</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0055701416951667027</v>
+        <v>-0.0051059632205695538</v>
       </c>
       <c r="C9" s="0">
-        <v>0.015496133375696358</v>
+        <v>0.014204788927721632</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0080973891532897802</v>
+        <v>0.0074226067238489513</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0022317706577182073</v>
+        <v>-0.0020457897695750349</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0026197740728633179</v>
+        <v>-0.0024014595667913863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.00035874692432957822</v>
+        <v>0.00032885134730217813</v>
       </c>
       <c r="B10" s="0">
-        <v>0.00054153829897538031</v>
+        <v>0.00049641010739406854</v>
       </c>
       <c r="C10" s="0">
-        <v>0.010626783918709387</v>
+        <v>0.0097412185921502692</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0018723695011600983</v>
+        <v>0.001716338709396692</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0012127457779631534</v>
+        <v>-0.0011116836297995758</v>
       </c>
       <c r="F10" s="0">
-        <v>0.008114761055937586</v>
+        <v>0.007438530967942808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.004684204684204718</v>
+        <v>0.0042938542938542879</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0036388732040905647</v>
+        <v>0.0033356337704164296</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.0015608493869363749</v>
+        <v>-0.0014307786046916793</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0049077521903608534</v>
+        <v>-0.0044987728411641503</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0059672815107597588</v>
+        <v>0.0054700080515298066</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0024041310273193728</v>
+        <v>-0.0022037867750428208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0033058093698825897</v>
+        <v>0.0030303252557257465</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0068676402148422355</v>
+        <v>0.0062953368636053803</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0086227632811483601</v>
+        <v>-0.0079041996743859505</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0015066604965265074</v>
+        <v>0.0013811054551493007</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0070548071380191202</v>
+        <v>-0.0064669065431842004</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0029238072716334107</v>
+        <v>0.0026801566656639159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0014437211233550296</v>
+        <v>-0.0013234110297420942</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0046455193194324118</v>
+        <v>0.0042583927094796692</v>
       </c>
       <c r="C13" s="0">
-        <v>0.001214539973121237</v>
+        <v>0.0011133283086944279</v>
       </c>
       <c r="D13" s="0">
-        <v>0.00076149695714911037</v>
+        <v>0.00069803887738664749</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.001279182438602755</v>
+        <v>-0.0011725839020525486</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0073057716078310797</v>
+        <v>0.006696957307178536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0055007334510439876</v>
+        <v>0.0050423389967903798</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0028136785383161833</v>
+        <v>0.0025792053267898463</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.0065756003644202587</v>
+        <v>-0.0060276336673852071</v>
       </c>
       <c r="D14" s="0">
-        <v>0.010278330610811431</v>
+        <v>0.0094218030599104441</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0065579413405500719</v>
+        <v>-0.0060114462288375359</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0069782301336978603</v>
+        <v>-0.0063967109558896729</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.012421229812534185</v>
+        <v>0.011386127328156304</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0029283471312456788</v>
+        <v>-0.0026843182036418722</v>
       </c>
       <c r="C15" s="0">
-        <v>0.0038821880600239389</v>
+        <v>0.0035586723883552634</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0061252595577538649</v>
+        <v>-0.0056148212612743831</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0092768172865823895</v>
+        <v>0.0085037491793673314</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0029933259746924568</v>
+        <v>0.0027438821434680877</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0048752403824867674</v>
+        <v>-0.0044689703506128331</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0092717795807040759</v>
+        <v>0.008499131282312028</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.0088471827602262243</v>
+        <v>-0.0081099175302074</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.010900109298278587</v>
+        <v>-0.0099917668567554019</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0030301848483667571</v>
+        <v>0.0027776694443361338</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.0081254431211806033</v>
+        <v>-0.0074483228610822405</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0019257446793677635</v>
+        <v>0.0017652659560871975</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0045341331872878476</v>
+        <v>0.0041562887550138095</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0044604175038957805</v>
+        <v>0.0040887160452378057</v>
       </c>
       <c r="D17" s="0">
-        <v>0.010392075609466866</v>
+        <v>0.0095260693086779424</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.0074193335062900656</v>
+        <v>-0.006801055714099169</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0088342153559545222</v>
+        <v>0.0080980307429582843</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.00097227404626336333</v>
+        <v>0.00089125120907479483</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0030322135094936753</v>
+        <v>-0.0027795290503691977</v>
       </c>
       <c r="C18" s="0">
-        <v>0.00585755455746928</v>
+        <v>0.0053694250110135344</v>
       </c>
       <c r="D18" s="0">
-        <v>0.00051216227686821936</v>
+        <v>0.00046948208712919992</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0030272158636547725</v>
+        <v>0.0027749478750168921</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.0038390660026270673</v>
+        <v>-0.0035191438357414645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0001524164050043797</v>
+        <v>-0.00013971503792070683</v>
       </c>
       <c r="B19" s="0">
-        <v>0.00058639131865678706</v>
+        <v>0.00053752537543537426</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.0028328017458452148</v>
+        <v>-0.0025967349336914469</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0061223157871428263</v>
+        <v>-0.0056121228048808675</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0048740476747252681</v>
+        <v>0.0044678770351648384</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.0021037868162692985</v>
+        <v>-0.0019284712482468547</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.00075944299546781835</v>
+        <v>0.00069615607917884736</v>
       </c>
       <c r="B20" s="0">
-        <v>0.00055972195560299864</v>
+        <v>0.000513078459302721</v>
       </c>
       <c r="C20" s="0">
-        <v>0.00096903901251729763</v>
+        <v>0.0008882857614741918</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0046986498393148668</v>
+        <v>0.0043070956860385978</v>
       </c>
       <c r="E20" s="0">
-        <v>0.003654960176699279</v>
+        <v>0.0033503801619743506</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0031353516373612</v>
+        <v>-0.0028740723342477736</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.00049547875634836647</v>
+        <v>-0.00045418885998596559</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.0088690020040134154</v>
+        <v>-0.0081299185036790012</v>
       </c>
       <c r="C21" s="0">
-        <v>0.010931945714554414</v>
+        <v>0.010020950238341556</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.012826884108348702</v>
+        <v>-0.011757977099319583</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.00093452504779734102</v>
+        <v>-0.00085664796048090519</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.016197624893277085</v>
+        <v>-0.014847822818837356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0062047466139537599</v>
+        <v>0.0056876843961242707</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0012725381837700445</v>
+        <v>0.0011664933351225593</v>
       </c>
       <c r="C22" s="0">
-        <v>0.003869748682001628</v>
+        <v>0.0035472696251681451</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0030345471521942557</v>
+        <v>-0.0027816682228447437</v>
       </c>
       <c r="E22" s="0">
-        <v>0.00042752278777119512</v>
+        <v>0.0003918958887902807</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0018780544142863176</v>
+        <v>-0.0017215498797624462</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.014282115731391071</v>
+        <v>-0.013091939420441873</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.0096856717974730111</v>
+        <v>-0.008878532481016943</v>
       </c>
       <c r="C23" s="0">
-        <v>0.012341058107648462</v>
+        <v>0.011312636598677761</v>
       </c>
       <c r="D23" s="0">
-        <v>0.00093958789610962268</v>
+        <v>0.00086128890476716569</v>
       </c>
       <c r="E23" s="0">
-        <v>0.013434888720929933</v>
+        <v>0.01231531466085245</v>
       </c>
       <c r="F23" s="0">
-        <v>0.009236673918579269</v>
+        <v>0.008466951092031022</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0040602431906779923</v>
+        <v>-0.0037218895914547939</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0018844688943849691</v>
+        <v>-0.0017274298198528965</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.002420285028980701</v>
+        <v>-0.002218594609898969</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0032814249061388634</v>
+        <v>0.0030079728306272591</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.010132676036566202</v>
+        <v>-0.0092882863668523608</v>
       </c>
       <c r="F24" s="0">
-        <v>0.0010382235782693261</v>
+        <v>0.00095170494674690076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.00041903115366381805</v>
+        <v>-0.0003841118908585045</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0043357869444826114</v>
+        <v>0.0039744713657757086</v>
       </c>
       <c r="C25" s="0">
-        <v>0.00018228279097842748</v>
+        <v>0.00016709255839690573</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0017778930822408834</v>
+        <v>0.001629735325387488</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.00065349252249310985</v>
+        <v>-0.00059903481228534838</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.0023398433724520773</v>
+        <v>-0.0021448564247477098</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.013154592674043453</v>
+        <v>0.012058376617873179</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0015391207937791584</v>
+        <v>-0.001410860727630886</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0068044904710796161</v>
+        <v>0.0062374495984896805</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0075814993322756846</v>
+        <v>0.0069497077212527236</v>
       </c>
       <c r="E26" s="0">
-        <v>0.005662949503529191</v>
+        <v>0.0051910370449017723</v>
       </c>
       <c r="F26" s="0">
-        <v>0.0035712132898833016</v>
+        <v>0.0032736121823930819</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0026107463178401541</v>
+        <v>-0.002393184124686823</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0048331651115785385</v>
+        <v>-0.0044304013522803165</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0035639737503091462</v>
+        <v>0.003266975937783384</v>
       </c>
       <c r="D27" s="0">
-        <v>0.002964850790937737</v>
+        <v>0.0027177798916929452</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0067147023668763101</v>
+        <v>-0.0061551438363032368</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0035922427226774967</v>
+        <v>-0.0032928891624543766</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0020942691232546107</v>
+        <v>0.0019197466963167542</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0059986490561525357</v>
+        <v>-0.0054987616348064899</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.0065136188324594196</v>
+        <v>-0.0059708172630877909</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0039479757647459257</v>
+        <v>-0.0036189777843504412</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0051891962531113028</v>
+        <v>0.0047567632320186931</v>
       </c>
       <c r="F28" s="0">
-        <v>0.0049351756512882317</v>
+        <v>0.0045239110136808397</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0020035266030689614</v>
+        <v>0.0018365660528131961</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0045633306502871757</v>
+        <v>0.004183053096096595</v>
       </c>
       <c r="C29" s="0">
-        <v>0.0012443508820320637</v>
+        <v>0.0011406549751960399</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.0049006011113966186</v>
+        <v>-0.004492217685446942</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0018097471513620345</v>
+        <v>0.0016589348887485478</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0023272849359805836</v>
+        <v>-0.0021333445246488614</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0095828182784704619</v>
+        <v>0.008784250088597928</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.00011369359195445572</v>
+        <v>-0.00010421912595823257</v>
       </c>
       <c r="C30" s="0">
-        <v>0.011251228642532946</v>
+        <v>0.010313626255655239</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0021383467035640813</v>
+        <v>0.0019601511449337805</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.0061296191730973726</v>
+        <v>-0.0056188175753392883</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.00074517294196929651</v>
+        <v>-0.00068307519680517459</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiObjectLvl_Within-PLI_gamma_B/roiObjectLvl_Within-PLI_gamma_B.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_gamma_B/roiObjectLvl_Within-PLI_gamma_B.xlsx
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.00017221705401049281</v>
+        <v>-0.00018787314982965375</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0011405462492419249</v>
+        <v>0.0012442322719002363</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.004427004555913161</v>
+        <v>-0.0048294595155415898</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0081739459068651266</v>
+        <v>0.0089170318983983754</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0024684254740543754</v>
+        <v>0.0026928277898774222</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0043412737584228034</v>
+        <v>0.0047359350091885632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0075897038901444613</v>
+        <v>-0.0082796769710666573</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0079149534209819739</v>
+        <v>0.0086344946410712442</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0064409338614673517</v>
+        <v>-0.0070264733034189342</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0017828387393604983</v>
+        <v>0.0019449149883933037</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0091137904437137429</v>
+        <v>-0.0099423168476877044</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0056197688839074444</v>
+        <v>-0.0061306569642627373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0021250241838476625</v>
+        <v>0.0023182082005611671</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0010310022814108838</v>
+        <v>-0.0011247297615391838</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0074691831461473068</v>
+        <v>-0.0081481997957970065</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0053382551872889761</v>
+        <v>0.0058235511134061557</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0012182815465932723</v>
+        <v>-0.0013290344144653576</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0042055513070005657</v>
+        <v>-0.0045878741530915312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0087419273754676674</v>
+        <v>-0.0095366480459648517</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0068778566665040342</v>
+        <v>-0.0075031163634589337</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.01336078545326097</v>
+        <v>-0.014575402312648311</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.016273994836796729</v>
+        <v>-0.017753448912869146</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0084002955046752481</v>
+        <v>0.0091639587323729954</v>
       </c>
       <c r="F5" s="0">
-        <v>0.01337790276409212</v>
+        <v>0.014594075742645929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001693403867316895</v>
+        <v>-0.0018473496734366102</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0015121354240101303</v>
+        <v>-0.0016496022807383492</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0039552828890303537</v>
+        <v>0.0043148540607602925</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0042375404267988304</v>
+        <v>0.0046227713746895827</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0064504389038550769</v>
+        <v>0.0070368424405691521</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00062728791593519295</v>
+        <v>-0.00068431409011115996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0061992239051735509</v>
+        <v>0.0067627897147347626</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.011595576599839119</v>
+        <v>-0.012649719927097208</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0013460665634578706</v>
+        <v>-0.0014684362510449245</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0037357455059318645</v>
+        <v>0.0040753587337437891</v>
       </c>
       <c r="E7" s="0">
-        <v>0.013860082076308844</v>
+        <v>0.015120089537791398</v>
       </c>
       <c r="F7" s="0">
-        <v>0.014578472290687594</v>
+        <v>0.015903787953477383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0001865219256522721</v>
+        <v>-0.00020347846434798367</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0046098448876226161</v>
+        <v>-0.0050289216955883009</v>
       </c>
       <c r="C8" s="0">
-        <v>0.00070925579034622488</v>
+        <v>0.00077373358946858373</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0011136597791187586</v>
+        <v>0.0012149015772204008</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.01573370175854652</v>
+        <v>-0.017164038282050681</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0058446478094726917</v>
+        <v>0.0063759794285156712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.00084648895790195855</v>
+        <v>0.00092344249952949764</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0051059632205695538</v>
+        <v>-0.0055701416951667027</v>
       </c>
       <c r="C9" s="0">
-        <v>0.014204788927721632</v>
+        <v>0.015496133375696358</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0074226067238489513</v>
+        <v>0.0080973891532897802</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0020457897695750349</v>
+        <v>-0.0022317706577182073</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0024014595667913863</v>
+        <v>-0.0026197740728633179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.00032885134730217813</v>
+        <v>0.00035874692432957822</v>
       </c>
       <c r="B10" s="0">
-        <v>0.00049641010739406854</v>
+        <v>0.00054153829897538031</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0097412185921502692</v>
+        <v>0.010626783918709387</v>
       </c>
       <c r="D10" s="0">
-        <v>0.001716338709396692</v>
+        <v>0.0018723695011600983</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0011116836297995758</v>
+        <v>-0.0012127457779631534</v>
       </c>
       <c r="F10" s="0">
-        <v>0.007438530967942808</v>
+        <v>0.008114761055937586</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0042938542938542879</v>
+        <v>0.004684204684204718</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0033356337704164296</v>
+        <v>0.0036388732040905647</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.0014307786046916793</v>
+        <v>-0.0015608493869363749</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0044987728411641503</v>
+        <v>-0.0049077521903608534</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0054700080515298066</v>
+        <v>0.0059672815107597588</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0022037867750428208</v>
+        <v>-0.0024041310273193728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0030303252557257465</v>
+        <v>0.0033058093698825897</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0062953368636053803</v>
+        <v>0.0068676402148422355</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0079041996743859505</v>
+        <v>-0.0086227632811483601</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0013811054551493007</v>
+        <v>0.0015066604965265074</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0064669065431842004</v>
+        <v>-0.0070548071380191202</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0026801566656639159</v>
+        <v>0.0029238072716334107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0013234110297420942</v>
+        <v>-0.0014437211233550296</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0042583927094796692</v>
+        <v>0.0046455193194324118</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0011133283086944279</v>
+        <v>0.001214539973121237</v>
       </c>
       <c r="D13" s="0">
-        <v>0.00069803887738664749</v>
+        <v>0.00076149695714911037</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0011725839020525486</v>
+        <v>-0.001279182438602755</v>
       </c>
       <c r="F13" s="0">
-        <v>0.006696957307178536</v>
+        <v>0.0073057716078310797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0050423389967903798</v>
+        <v>0.0055007334510439876</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0025792053267898463</v>
+        <v>0.0028136785383161833</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.0060276336673852071</v>
+        <v>-0.0065756003644202587</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0094218030599104441</v>
+        <v>0.010278330610811431</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0060114462288375359</v>
+        <v>-0.0065579413405500719</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0063967109558896729</v>
+        <v>-0.0069782301336978603</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.011386127328156304</v>
+        <v>0.012421229812534185</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0026843182036418722</v>
+        <v>-0.0029283471312456788</v>
       </c>
       <c r="C15" s="0">
-        <v>0.0035586723883552634</v>
+        <v>0.0038821880600239389</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0056148212612743831</v>
+        <v>-0.0061252595577538649</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0085037491793673314</v>
+        <v>0.0092768172865823895</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0027438821434680877</v>
+        <v>0.0029933259746924568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0044689703506128331</v>
+        <v>-0.0048752403824867674</v>
       </c>
       <c r="B16" s="0">
-        <v>0.008499131282312028</v>
+        <v>0.0092717795807040759</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.0081099175302074</v>
+        <v>-0.0088471827602262243</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0099917668567554019</v>
+        <v>-0.010900109298278587</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0027776694443361338</v>
+        <v>0.0030301848483667571</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.0074483228610822405</v>
+        <v>-0.0081254431211806033</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0017652659560871975</v>
+        <v>0.0019257446793677635</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0041562887550138095</v>
+        <v>0.0045341331872878476</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0040887160452378057</v>
+        <v>0.0044604175038957805</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0095260693086779424</v>
+        <v>0.010392075609466866</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.006801055714099169</v>
+        <v>-0.0074193335062900656</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0080980307429582843</v>
+        <v>0.0088342153559545222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.00089125120907479483</v>
+        <v>0.00097227404626336333</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0027795290503691977</v>
+        <v>-0.0030322135094936753</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0053694250110135344</v>
+        <v>0.00585755455746928</v>
       </c>
       <c r="D18" s="0">
-        <v>0.00046948208712919992</v>
+        <v>0.00051216227686821936</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0027749478750168921</v>
+        <v>0.0030272158636547725</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.0035191438357414645</v>
+        <v>-0.0038390660026270673</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.00013971503792070683</v>
+        <v>-0.0001524164050043797</v>
       </c>
       <c r="B19" s="0">
-        <v>0.00053752537543537426</v>
+        <v>0.00058639131865678706</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.0025967349336914469</v>
+        <v>-0.0028328017458452148</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0056121228048808675</v>
+        <v>-0.0061223157871428263</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0044678770351648384</v>
+        <v>0.0048740476747252681</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.0019284712482468547</v>
+        <v>-0.0021037868162692985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.00069615607917884736</v>
+        <v>0.00075944299546781835</v>
       </c>
       <c r="B20" s="0">
-        <v>0.000513078459302721</v>
+        <v>0.00055972195560299864</v>
       </c>
       <c r="C20" s="0">
-        <v>0.0008882857614741918</v>
+        <v>0.00096903901251729763</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0043070956860385978</v>
+        <v>0.0046986498393148668</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0033503801619743506</v>
+        <v>0.003654960176699279</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0028740723342477736</v>
+        <v>-0.0031353516373612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.00045418885998596559</v>
+        <v>-0.00049547875634836647</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.0081299185036790012</v>
+        <v>-0.0088690020040134154</v>
       </c>
       <c r="C21" s="0">
-        <v>0.010020950238341556</v>
+        <v>0.010931945714554414</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.011757977099319583</v>
+        <v>-0.012826884108348702</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.00085664796048090519</v>
+        <v>-0.00093452504779734102</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.014847822818837356</v>
+        <v>-0.016197624893277085</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0056876843961242707</v>
+        <v>0.0062047466139537599</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0011664933351225593</v>
+        <v>0.0012725381837700445</v>
       </c>
       <c r="C22" s="0">
-        <v>0.0035472696251681451</v>
+        <v>0.003869748682001628</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0027816682228447437</v>
+        <v>-0.0030345471521942557</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0003918958887902807</v>
+        <v>0.00042752278777119512</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0017215498797624462</v>
+        <v>-0.0018780544142863176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.013091939420441873</v>
+        <v>-0.014282115731391071</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.008878532481016943</v>
+        <v>-0.0096856717974730111</v>
       </c>
       <c r="C23" s="0">
-        <v>0.011312636598677761</v>
+        <v>0.012341058107648462</v>
       </c>
       <c r="D23" s="0">
-        <v>0.00086128890476716569</v>
+        <v>0.00093958789610962268</v>
       </c>
       <c r="E23" s="0">
-        <v>0.01231531466085245</v>
+        <v>0.013434888720929933</v>
       </c>
       <c r="F23" s="0">
-        <v>0.008466951092031022</v>
+        <v>0.009236673918579269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0037218895914547939</v>
+        <v>-0.0040602431906779923</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0017274298198528965</v>
+        <v>-0.0018844688943849691</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.002218594609898969</v>
+        <v>-0.002420285028980701</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0030079728306272591</v>
+        <v>0.0032814249061388634</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.0092882863668523608</v>
+        <v>-0.010132676036566202</v>
       </c>
       <c r="F24" s="0">
-        <v>0.00095170494674690076</v>
+        <v>0.0010382235782693261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0003841118908585045</v>
+        <v>-0.00041903115366381805</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0039744713657757086</v>
+        <v>0.0043357869444826114</v>
       </c>
       <c r="C25" s="0">
-        <v>0.00016709255839690573</v>
+        <v>0.00018228279097842748</v>
       </c>
       <c r="D25" s="0">
-        <v>0.001629735325387488</v>
+        <v>0.0017778930822408834</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.00059903481228534838</v>
+        <v>-0.00065349252249310985</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.0021448564247477098</v>
+        <v>-0.0023398433724520773</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.012058376617873179</v>
+        <v>0.013154592674043453</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.001410860727630886</v>
+        <v>-0.0015391207937791584</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0062374495984896805</v>
+        <v>0.0068044904710796161</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0069497077212527236</v>
+        <v>0.0075814993322756846</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0051910370449017723</v>
+        <v>0.005662949503529191</v>
       </c>
       <c r="F26" s="0">
-        <v>0.0032736121823930819</v>
+        <v>0.0035712132898833016</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.002393184124686823</v>
+        <v>-0.0026107463178401541</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0044304013522803165</v>
+        <v>-0.0048331651115785385</v>
       </c>
       <c r="C27" s="0">
-        <v>0.003266975937783384</v>
+        <v>0.0035639737503091462</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0027177798916929452</v>
+        <v>0.002964850790937737</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0061551438363032368</v>
+        <v>-0.0067147023668763101</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0032928891624543766</v>
+        <v>-0.0035922427226774967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0019197466963167542</v>
+        <v>0.0020942691232546107</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0054987616348064899</v>
+        <v>-0.0059986490561525357</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.0059708172630877909</v>
+        <v>-0.0065136188324594196</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0036189777843504412</v>
+        <v>-0.0039479757647459257</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0047567632320186931</v>
+        <v>0.0051891962531113028</v>
       </c>
       <c r="F28" s="0">
-        <v>0.0045239110136808397</v>
+        <v>0.0049351756512882317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0018365660528131961</v>
+        <v>0.0020035266030689614</v>
       </c>
       <c r="B29" s="0">
-        <v>0.004183053096096595</v>
+        <v>0.0045633306502871757</v>
       </c>
       <c r="C29" s="0">
-        <v>0.0011406549751960399</v>
+        <v>0.0012443508820320637</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.004492217685446942</v>
+        <v>-0.0049006011113966186</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0016589348887485478</v>
+        <v>0.0018097471513620345</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0021333445246488614</v>
+        <v>-0.0023272849359805836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.008784250088597928</v>
+        <v>0.0095828182784704619</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.00010421912595823257</v>
+        <v>-0.00011369359195445572</v>
       </c>
       <c r="C30" s="0">
-        <v>0.010313626255655239</v>
+        <v>0.011251228642532946</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0019601511449337805</v>
+        <v>0.0021383467035640813</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.0056188175753392883</v>
+        <v>-0.0061296191730973726</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.00068307519680517459</v>
+        <v>-0.00074517294196929651</v>
       </c>
     </row>
   </sheetData>
